--- a/template/Template Biaya Penginapan Dalam Negeri.xlsx
+++ b/template/Template Biaya Penginapan Dalam Negeri.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belajar Coding _Programmer\aplikasi-perjadin\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083E9A18-086A-4C56-ABA2-30ABB78B1E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B7FBC-0F89-4B79-ADC2-C89935CE5A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DEF48955-3BAF-4228-8703-FD2D8BD68B24}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>NO</t>
   </si>
@@ -48,13 +48,124 @@
     <t>OH</t>
   </si>
   <si>
-    <t>Hongkong</t>
-  </si>
-  <si>
     <t>TARIF HOTEL PER GOLONGAN (Rp)</t>
   </si>
   <si>
     <t>PROVINSI</t>
+  </si>
+  <si>
+    <t>ACEH</t>
+  </si>
+  <si>
+    <t>SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>DAERAH KHUSUS  IBUKOTA JAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA  TENGAH</t>
+  </si>
+  <si>
+    <t>DAERAH  ISTIMEWA YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA  TIMUR</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSA  TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA  TENGGARA  TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN  TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN  TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGAH</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT DAYA</t>
+  </si>
+  <si>
+    <t>PAPUA  TENGAH</t>
+  </si>
+  <si>
+    <t>PAPUA SELATAN</t>
+  </si>
+  <si>
+    <t>PAPUA PEGUNUNGAN</t>
   </si>
 </sst>
 </file>
@@ -64,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +186,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,20 +225,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="7" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -431,106 +583,932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B390032-B230-4A08-864F-BDA9F30DEB48}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="6" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="9" customWidth="1"/>
+    <col min="4" max="7" width="8.7265625" style="9"/>
+    <col min="8" max="8" width="25.453125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4420000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3526000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1533000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>770000</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4960000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2195000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1100000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>699000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3820000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3119000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1650000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>852000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5344000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2318000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1297000</v>
+      </c>
+      <c r="G6" s="5">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4102000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1225000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5236000</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3332000</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1353000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>701000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5850000</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3083000</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1955000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>861000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>150000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4491000</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2488000</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1425000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>580000</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2140000</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1628000</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1546000</v>
+      </c>
+      <c r="G11" s="14">
+        <v>692000</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3827000</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2838000</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1957000</v>
+      </c>
+      <c r="G12" s="14">
+        <v>649000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5725000</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2373000</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1204000</v>
+      </c>
+      <c r="G13" s="14">
+        <v>724000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14">
+        <v>5381000</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2755000</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1201000</v>
+      </c>
+      <c r="G14" s="14">
+        <v>686000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14">
+        <v>8720000</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2063000</v>
+      </c>
+      <c r="F15" s="14">
+        <v>992000</v>
+      </c>
+      <c r="G15" s="14">
+        <v>730000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5303000</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1850000</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1201000</v>
+      </c>
+      <c r="G16" s="14">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5017000</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2695000</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1384000</v>
+      </c>
+      <c r="G17" s="14">
+        <v>845000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14">
+        <v>4400000</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2007000</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1153000</v>
+      </c>
+      <c r="G18" s="14">
+        <v>814000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6848000</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2433000</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1685000</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1138000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="14">
+        <v>4375000</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2648000</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1418000</v>
+      </c>
+      <c r="G20" s="14">
+        <v>907000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3750000</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2133000</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1355000</v>
+      </c>
+      <c r="G21" s="14">
+        <v>688000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2654000</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1923000</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1125000</v>
+      </c>
+      <c r="G22" s="14">
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14">
+        <v>4901000</v>
+      </c>
+      <c r="E23" s="15">
+        <v>3391000</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1160000</v>
+      </c>
+      <c r="G23" s="14">
+        <v>659000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4797000</v>
+      </c>
+      <c r="E24" s="15">
+        <v>3316000</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1500000</v>
+      </c>
+      <c r="G24" s="14">
+        <v>697000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4000000</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2188000</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1507000</v>
+      </c>
+      <c r="G25" s="14">
+        <v>804000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="14">
+        <v>4000000</v>
+      </c>
+      <c r="E26" s="15">
+        <v>2735000</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1507000</v>
+      </c>
+      <c r="G26" s="14">
+        <v>904000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4919000</v>
+      </c>
+      <c r="E27" s="15">
+        <v>2290000</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1207000</v>
+      </c>
+      <c r="G27" s="14">
+        <v>978000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4168000</v>
+      </c>
+      <c r="E28" s="15">
+        <v>3107000</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1606000</v>
+      </c>
+      <c r="G28" s="14">
+        <v>955000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="14">
+        <v>4076000</v>
+      </c>
+      <c r="E29" s="15">
+        <v>3098000</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1344000</v>
+      </c>
+      <c r="G29" s="14">
+        <v>704000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4820000</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1938000</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1423000</v>
+      </c>
+      <c r="G30" s="14">
+        <v>745000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="14">
+        <v>2309000</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2027000</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1679000</v>
+      </c>
+      <c r="G31" s="14">
+        <v>951000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="14">
+        <v>3088800</v>
+      </c>
+      <c r="E32" s="15">
+        <v>2574000</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1297000</v>
+      </c>
+      <c r="G32" s="14">
+        <v>786000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="14">
+        <v>3467000</v>
+      </c>
+      <c r="E33" s="15">
+        <v>3240000</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1059000</v>
+      </c>
+      <c r="G33" s="14">
+        <v>667000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="14">
+        <v>4611600</v>
+      </c>
+      <c r="E34" s="15">
+        <v>3843000</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1160000</v>
+      </c>
+      <c r="G34" s="14">
+        <v>605000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="14">
+        <v>3859000</v>
+      </c>
+      <c r="E35" s="15">
+        <v>3318000</v>
+      </c>
+      <c r="F35" s="14">
+        <v>2521000</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1038000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="14">
+        <v>3872000</v>
+      </c>
+      <c r="E36" s="15">
+        <v>3341000</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2056000</v>
+      </c>
+      <c r="G36" s="14">
+        <v>967000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="14">
+        <v>3872000</v>
+      </c>
+      <c r="E37" s="15">
+        <v>3341000</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2056000</v>
+      </c>
+      <c r="G37" s="14">
+        <v>967000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="14">
+        <v>3859000</v>
+      </c>
+      <c r="E38" s="15">
+        <v>3318000</v>
+      </c>
+      <c r="F38" s="14">
+        <v>2521000</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1038000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="14">
+        <v>5673000</v>
+      </c>
+      <c r="E39" s="15">
+        <v>4877000</v>
+      </c>
+      <c r="F39" s="14">
+        <v>3706000</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1526000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="14">
+        <v>5711000</v>
+      </c>
+      <c r="E40" s="15">
+        <v>4911000</v>
+      </c>
+      <c r="F40" s="14">
+        <v>3731000</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1536000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
